--- a/Philadelphus.WpfApplication/Philadelphus.WpfApplication/Icons/Авторы.xlsx
+++ b/Philadelphus.WpfApplication/Philadelphus.WpfApplication/Icons/Авторы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MelSV_Projects\Philadelphus\Philadelphus.WpfApplication\Philadelphus.WpfApplication\Philadelphus.WpfApplication\Icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B695BB-2862-4C87-B90B-4F8A1E7540C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA5EC3-011A-41E1-B1B3-C4850ED11DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9165" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Сайт</t>
   </si>
@@ -58,16 +58,97 @@
   </si>
   <si>
     <t>open.png</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>top_level_64.png</t>
+  </si>
+  <si>
+    <t>top.png</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/top_8958937?term=top+level&amp;page=1&amp;position=13&amp;origin=search&amp;related_id=8958937</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.flaticon.com/free-icons/get-on" title="Get on icons"&gt;Get on icons created by Muhammad_Usman - Flaticon&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>edit.png</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/search?word=modify</t>
+  </si>
+  <si>
+    <t>edit_64.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.flaticon.com/free-icons/edit" title="edit icons"&gt;Edit icons created by Kiranshastry - Flaticon&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>approval.png</t>
+  </si>
+  <si>
+    <t>approval_64.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.flaticon.com/free-icons/approval" title="approval icons"&gt;Approval icons created by surang - Flaticon&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/approval_2075667?term=approve&amp;page=1&amp;position=4&amp;origin=search&amp;related_id=2075667</t>
+  </si>
+  <si>
+    <t>search.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.flaticon.com/free-icons/information" title="information icons"&gt;Information icons created by Freepik - Flaticon&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/search_3281188</t>
+  </si>
+  <si>
+    <t>new-tab.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.flaticon.com/free-icons/new-window" title="new window icons"&gt;New window icons created by Grand Iconic - Flaticon&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/new-tab_12690013?term=new+window&amp;page=1&amp;position=1&amp;origin=search&amp;related_id=12690013</t>
+  </si>
+  <si>
+    <t>check_64.png</t>
+  </si>
+  <si>
+    <t>new-tab_64.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,12 +170,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -375,63 +473,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="148.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{24893D52-078F-425C-B190-1E810599DF4C}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{801744F8-AA42-4DBA-B71D-1CE65AD75811}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Philadelphus.WpfApplication/Philadelphus.WpfApplication/Icons/Авторы.xlsx
+++ b/Philadelphus.WpfApplication/Philadelphus.WpfApplication/Icons/Авторы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MelSV_Projects\Philadelphus\Philadelphus.WpfApplication\Philadelphus.WpfApplication\Philadelphus.WpfApplication\Icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA5EC3-011A-41E1-B1B3-C4850ED11DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC7E769-39DA-4487-87A0-6871959C9BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9165" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Сайт</t>
   </si>
@@ -124,6 +127,33 @@
   </si>
   <si>
     <t>new-tab_64.png</t>
+  </si>
+  <si>
+    <t>cloud.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.flaticon.com/free-icons/sync" title="sync icons"&gt;Sync icons created by Ayub Irawan - Flaticon&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/cloud_2319197?term=synchronize&amp;page=1&amp;position=26&amp;origin=search&amp;related_id=2319197</t>
+  </si>
+  <si>
+    <t>getwork_64.png</t>
+  </si>
+  <si>
+    <t>icons8-квадратный-корень-2-64.png</t>
+  </si>
+  <si>
+    <t>philadelphus_logo_64.png</t>
+  </si>
+  <si>
+    <t>icons8.ru</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://icons8.com/icon/H5fos0lujvMY/root"&gt;Квадратный корень 2&lt;/a&gt; иконка от &lt;a target="_blank" href="https://icons8.com"&gt;Icons8&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://icons8.ru/icon/H5fos0lujvMY/квадратный-корень-2</t>
   </si>
 </sst>
 </file>
@@ -473,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" sqref="A9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,13 +654,49 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{24893D52-078F-425C-B190-1E810599DF4C}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{801744F8-AA42-4DBA-B71D-1CE65AD75811}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{EE2FB710-D0B1-4C8A-A16B-340DF3C02C77}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{1D2B95C9-C435-4B8C-974A-21672A5CE58B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>